--- a/BENCHMARKING/Becnhmark Summary.xlsx
+++ b/BENCHMARKING/Becnhmark Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm018586\Downloads\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phxonline-my.sharepoint.com/personal/pranavphanindrasai_manepalli_zelis_com/Documents/Documents/Tasks/RUST_VS_PYTHON/BENCHMARKING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55216E2E-E90A-4727-A0C7-49B79FCBCCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{55216E2E-E90A-4727-A0C7-49B79FCBCCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261A21E9-0E0D-467B-9A09-DB6F2C1B5D7A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warmup Read &amp; Create" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'ReadDelete Latency Distribution'!$H$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'ReadDelete Latency Distribution'!$H$3:$H$202</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'ReadDelete Latency Distribution'!$I$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'ReadDelete Latency Distribution'!$I$3:$I$202</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'ReadDelete Latency Distribution'!$I$2</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'ReadDelete Latency Distribution'!$I$3:$I$202</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'ReadDelete Latency Distribution'!$B$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'ReadDelete Latency Distribution'!$B$3:$B$52</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'ReadDelete Latency Distribution'!$C$2</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'ReadDelete Latency Distribution'!$C$3:$C$52</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'ReadDelete Latency Distribution'!$H$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'ReadDelete Latency Distribution'!$H$3:$H$202</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t xml:space="preserve">Warmup Latency </t>
   </si>
@@ -116,6 +112,9 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Speedup</t>
   </si>
 </sst>
 </file>
@@ -179,11 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,13 +930,13 @@
                   <c:v>6.2509999999999959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.67634999999973</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9024100000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.72899999999998</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,6 +1106,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1434110639"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -1408,13 +1408,13 @@
                   <c:v>6.2509999999999959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.67634999999973</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9024100000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.72899999999998</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,13 +1824,13 @@
                   <c:v>6.2509999999999959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.67634999999973</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9024100000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.72899999999998</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,6 +1860,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Endpoint Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1925,6 +1980,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency in (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2248,13 +2358,13 @@
                   <c:v>9.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>680.44</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402.64</c:v>
+                  <c:v>15.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,6 +2394,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CRUD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Operations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2349,6 +2519,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2668,13 +2893,13 @@
                   <c:v>1497.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>1575.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1655.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.190000000000001</c:v>
+                  <c:v>1490.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,6 +2930,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CRUD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Operations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2770,6 +3055,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Requests /sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3126,6 +3466,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CRUD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ops</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3191,6 +3591,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3394,12 +3849,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3437,7 +3892,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{082731B0-1AC2-48D7-8343-7EBEA7C0B316}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Rust</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3450,7 +3905,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D49C2C74-D48F-4E1D-9067-D2AA5E73FE1A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Python</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8577,13 +9032,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>354012</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>49212</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8660,8 +9115,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6075362" y="520700"/>
-              <a:ext cx="5970588" cy="3648075"/>
+              <a:off x="6075362" y="527050"/>
+              <a:ext cx="5970588" cy="3714750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8738,8 +9193,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6094411" y="4464050"/>
-              <a:ext cx="5992813" cy="3394075"/>
+              <a:off x="6094411" y="4540250"/>
+              <a:ext cx="5992813" cy="3454400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8777,15 +9232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>325437</xdr:colOff>
+      <xdr:colOff>325436</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20637</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9078,7 +9533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -9094,16 +9549,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
@@ -9197,7 +9652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D546438-9A50-495B-9BE0-AED978544270}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -9281,11 +9736,11 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -9375,11 +9830,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -9445,11 +9900,11 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
@@ -9534,11 +9989,11 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
@@ -9622,11 +10077,11 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
@@ -9698,10 +10153,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E2A83-BBBE-4750-A2AB-D0F188136651}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>13.962524999999994</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.2509999999999959</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>2.2336466165413538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25.587725000000006</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
+        <v>51.175450000000012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.2296499999999977</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.9024100000000006</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.8354539847919473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10.504720000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>35.015733333333351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BADD4F-E5E9-42B5-A461-4167A68AF881}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9725,10 +10273,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>13.962524999999994</v>
+        <v>18.79</v>
       </c>
       <c r="C2" s="2">
-        <v>6.2509999999999959</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9736,10 +10284,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>25.587725000000006</v>
+        <v>42.85</v>
       </c>
       <c r="C3" s="2">
-        <v>514.67634999999973</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -9747,10 +10295,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>8.2296499999999977</v>
+        <v>25.84</v>
       </c>
       <c r="C4" s="2">
-        <v>2.9024100000000006</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -9758,84 +10306,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>10.504720000000004</v>
+        <v>26.85</v>
       </c>
       <c r="C5" s="2">
-        <v>260.72899999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BADD4F-E5E9-42B5-A461-4167A68AF881}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2">
-        <v>18.79</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42.85</v>
-      </c>
-      <c r="C3" s="2">
-        <v>680.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
-        <v>25.84</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2">
-        <v>26.85</v>
-      </c>
-      <c r="C5" s="2">
-        <v>402.64</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>
@@ -9848,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3A952-BA8F-4FA5-97FE-8C73ABE707D8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9884,7 +10358,7 @@
         <v>380.06</v>
       </c>
       <c r="C3" s="2">
-        <v>19.100000000000001</v>
+        <v>1575.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -9906,7 +10380,7 @@
         <v>453.7</v>
       </c>
       <c r="C5" s="2">
-        <v>18.190000000000001</v>
+        <v>1490.5</v>
       </c>
     </row>
   </sheetData>
@@ -9929,19 +10403,19 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
